--- a/Architecture Diagram/Project Steps and Timeline Document.xlsx
+++ b/Architecture Diagram/Project Steps and Timeline Document.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FL\DE Project\DataEngineering-Project\Architecture Diagram\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python_Projects\Airflow\DataEngineering-Project\Architecture Diagram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6579C12-5D69-436F-8AE9-E21458AC3C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B25072-216D-4454-9755-611C41EAFACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{EEB22030-86B8-4774-AB90-56F3B87FC4BD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EEB22030-86B8-4774-AB90-56F3B87FC4BD}"/>
   </bookViews>
   <sheets>
     <sheet name="List of points to include" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>CSV dataset</t>
   </si>
@@ -119,6 +119,48 @@
   </si>
   <si>
     <t>https://jacobcelestine.com/knowledge_repo/colab_and_pyspark/</t>
+  </si>
+  <si>
+    <t>Installation</t>
+  </si>
+  <si>
+    <t>Dags</t>
+  </si>
+  <si>
+    <t>csv -&gt; s3</t>
+  </si>
+  <si>
+    <t>python+ boto</t>
+  </si>
+  <si>
+    <t>step 1</t>
+  </si>
+  <si>
+    <t>data checks</t>
+  </si>
+  <si>
+    <t>step 2</t>
+  </si>
+  <si>
+    <t>Transformation</t>
+  </si>
+  <si>
+    <t>step 3</t>
+  </si>
+  <si>
+    <t>loading</t>
+  </si>
+  <si>
+    <t>postgres</t>
+  </si>
+  <si>
+    <t>metadata</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>sqllite</t>
   </si>
 </sst>
 </file>
@@ -529,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4982362E-C679-4070-871F-87E1D90799B0}">
-  <dimension ref="A2:B13"/>
+  <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,13 +583,13 @@
     <col min="2" max="2" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>25</v>
       </c>
@@ -555,7 +597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -563,59 +605,106 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -627,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F9C0AD-E090-4822-B246-8EAF5BBF7064}">
   <dimension ref="B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
